--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1883359.978592957</v>
+        <v>1880862.812416091</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1379,10 +1379,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772208</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>46.08353999181142</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>43.98432467468512</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>218.3373217201528</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262956</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>260.732768383498</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350768</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045264</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162684</v>
+        <v>264.6891945433913</v>
       </c>
       <c r="H17" t="n">
-        <v>148.3752332772574</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099085</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T17" t="n">
-        <v>109.9676969024352</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>157.044898721717</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329499</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188686</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475231</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144285</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102737</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938418</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574626</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184324</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713579</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172653109</v>
+        <v>2.402147172652967</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425689</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389842</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
-        <v>158.187370086643</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>192.572725099406</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>131.7593821518522</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149098</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262956</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>208.4505105106192</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350768</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045264</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162684</v>
+        <v>264.6891945433917</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501355</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099085</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T20" t="n">
-        <v>109.9676969024352</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>157.044898721717</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329499</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188686</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475231</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144285</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102737</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938418</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574626</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184324</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713579</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653109</v>
+        <v>2.402147172652967</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425689</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389842</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>158.187370086643</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W22" t="n">
-        <v>192.572725099406</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>131.7593821518522</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149098</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>229.5975023769314</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
         <v>260.7327683834978</v>
@@ -2327,13 +2327,13 @@
         <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>271.2006563476347</v>
       </c>
       <c r="G23" t="n">
         <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099075</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
         <v>157.0448987217169</v>
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475221</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144275</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938408</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713569</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425681</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T25" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
         <v>158.1873700866429</v>
@@ -2539,7 +2539,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
         <v>124.6343801149097</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>317.8225488237587</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>253.0545870713054</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>178.7194680135061</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>189.9955896644202</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865176</v>
+        <v>285.8032029865174</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940445</v>
+        <v>268.3422530940443</v>
       </c>
       <c r="D32" t="n">
-        <v>257.75240294372</v>
+        <v>257.7524029437197</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952988</v>
+        <v>284.9997313952986</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647485</v>
+        <v>309.9454070647482</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764905</v>
+        <v>313.9910869764902</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103574</v>
+        <v>197.6771257103572</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121282</v>
+        <v>12.25712311121262</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626571</v>
+        <v>106.9873314626569</v>
       </c>
       <c r="U32" t="n">
-        <v>154.064533281939</v>
+        <v>154.0645332819388</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931719</v>
+        <v>230.8216197931717</v>
       </c>
       <c r="W32" t="n">
-        <v>252.31033004045</v>
+        <v>252.3103300404498</v>
       </c>
       <c r="X32" t="n">
-        <v>272.800462001506</v>
+        <v>272.8004620015058</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790905</v>
+        <v>289.3072999790904</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.5968754185112</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497428</v>
+        <v>82.90134150497408</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166482</v>
+        <v>70.31618242166462</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124934</v>
+        <v>51.68483434124914</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960616</v>
+        <v>49.50332396960596</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596823</v>
+        <v>48.49040934596803</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206521</v>
+        <v>69.09516958206501</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735777</v>
+        <v>47.82437623735757</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447888</v>
+        <v>92.83838665447868</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992062</v>
+        <v>122.618310599206</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286498</v>
+        <v>189.2811995286496</v>
       </c>
       <c r="V34" t="n">
-        <v>155.207004646865</v>
+        <v>155.2070046468648</v>
       </c>
       <c r="W34" t="n">
-        <v>189.592359659628</v>
+        <v>189.5923596596278</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120741</v>
+        <v>128.7790167120739</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751318</v>
+        <v>121.6540146751316</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851098</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3487,7 +3487,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851098</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538324</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.084305103337</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>990.5514538055363</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>652.212834155365</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>652.212834155365</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3216.21575578958</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3010.13491201149</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>3010.13491201149</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2704.815889689449</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2378.799764376442</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2036.110065348704</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
@@ -5115,16 +5115,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391137</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753428</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5294,7 +5294,7 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5309,19 +5309,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3059.808060634125</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.194806238628</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238628</v>
+        <v>2393.999824030771</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5358,49 +5358,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
         <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.964583048799</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004534</v>
+        <v>1406.901332004535</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.53489929393</v>
+        <v>1143.534899293931</v>
       </c>
       <c r="E17" t="n">
-        <v>852.6459125918323</v>
+        <v>852.6459125918332</v>
       </c>
       <c r="F17" t="n">
-        <v>536.5592736983713</v>
+        <v>536.5592736983722</v>
       </c>
       <c r="G17" t="n">
-        <v>216.3860894395142</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5537,13 +5537,13 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032414</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312783</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U17" t="n">
         <v>3040.504726482765</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5613,7 +5613,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125857</v>
@@ -5622,16 +5622,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687823</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370218</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208326</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345859</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F19" t="n">
-        <v>193.060019332822</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036874</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769164</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>171.345640474436</v>
+        <v>139.6276133533385</v>
       </c>
       <c r="K19" t="n">
-        <v>362.6672652469196</v>
+        <v>330.9492381258222</v>
       </c>
       <c r="L19" t="n">
-        <v>611.38787967409</v>
+        <v>579.6698525529928</v>
       </c>
       <c r="M19" t="n">
-        <v>845.081043718473</v>
+        <v>747.1023338521907</v>
       </c>
       <c r="N19" t="n">
-        <v>1109.400651253134</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O19" t="n">
-        <v>1340.329770976137</v>
+        <v>1242.351061109855</v>
       </c>
       <c r="P19" t="n">
-        <v>1532.291544233708</v>
+        <v>1434.312834367427</v>
       </c>
       <c r="Q19" t="n">
-        <v>1545.212311592249</v>
+        <v>1540.244372230781</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592249</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.425693315222</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780895</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802685</v>
+        <v>1127.354742802683</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929441</v>
+        <v>967.5695204929427</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521299</v>
+        <v>773.0516163521287</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502591</v>
+        <v>639.961331350258</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028755</v>
+        <v>514.0680181028745</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048798</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004533</v>
+        <v>1406.901332004535</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781686</v>
+        <v>1143.534899293931</v>
       </c>
       <c r="E20" t="n">
-        <v>905.456274079588</v>
+        <v>852.6459125918335</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861267</v>
+        <v>536.5592736983726</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272698</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,28 +5750,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5783,19 +5783,19 @@
         <v>3199.135937312782</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482764</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.34110503534</v>
+        <v>2804.341105035342</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661372</v>
+        <v>2546.471715661374</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296439</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216774</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5832,43 +5832,43 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687823</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370218</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208326</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345859</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F22" t="n">
-        <v>193.060019332822</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036874</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769163</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>144.5955527148082</v>
+        <v>171.3456404744362</v>
       </c>
       <c r="K22" t="n">
-        <v>242.9064069824785</v>
+        <v>269.6564947421066</v>
       </c>
       <c r="L22" t="n">
-        <v>491.6270214096489</v>
+        <v>518.3771091692772</v>
       </c>
       <c r="M22" t="n">
-        <v>752.0702732136599</v>
+        <v>778.8203609732884</v>
       </c>
       <c r="N22" t="n">
-        <v>1016.389880748321</v>
+        <v>1043.139968507949</v>
       </c>
       <c r="O22" t="n">
-        <v>1247.319000471324</v>
+        <v>1274.069088230952</v>
       </c>
       <c r="P22" t="n">
-        <v>1439.280773728895</v>
+        <v>1466.030861488524</v>
       </c>
       <c r="Q22" t="n">
-        <v>1545.212311592249</v>
+        <v>1540.244372230781</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592249</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.425693315222</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780895</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802685</v>
+        <v>1127.354742802683</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929441</v>
+        <v>967.5695204929427</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521299</v>
+        <v>773.0516163521287</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502591</v>
+        <v>639.961331350258</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028755</v>
+        <v>514.0680181028745</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1691.845990713185</v>
+        <v>1691.845990713183</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.782739668919</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958315</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328755</v>
+        <v>863.5273202562171</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394144</v>
+        <v>589.5872633394143</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805574</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I23" t="n">
-        <v>77.39352409656951</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J23" t="n">
-        <v>266.272655055595</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K23" t="n">
-        <v>600.0920287454414</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L23" t="n">
-        <v>1051.12624199385</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724557</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603894</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961072</v>
+        <v>3029.183800961071</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716755</v>
+        <v>3277.470162716753</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696799</v>
+        <v>3321.095826696797</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977167</v>
+        <v>3210.017344977166</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147151</v>
+        <v>3051.386134147149</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699726</v>
+        <v>2815.222512699725</v>
       </c>
       <c r="W23" t="n">
-        <v>2557.353123325759</v>
+        <v>2557.353123325757</v>
       </c>
       <c r="X23" t="n">
-        <v>2278.786630960825</v>
+        <v>2278.786630960824</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.54656488116</v>
+        <v>1983.546564881159</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E24" t="n">
         <v>459.1365886865626</v>
@@ -6060,19 +6060,19 @@
         <v>176.2389305460657</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393316</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K24" t="n">
         <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M24" t="n">
         <v>1212.645698591417</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220693</v>
+        <v>427.536447322069</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903089</v>
+        <v>353.4995302903087</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741197</v>
+        <v>298.2821567741196</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878732</v>
+        <v>245.268329087873</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861094</v>
+        <v>193.2776474861093</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569749</v>
+        <v>120.4740767569748</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097923</v>
+        <v>69.15615587097918</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J25" t="n">
-        <v>139.8452415066277</v>
+        <v>171.5632686277238</v>
       </c>
       <c r="K25" t="n">
-        <v>331.1668662791113</v>
+        <v>362.8848934002075</v>
       </c>
       <c r="L25" t="n">
-        <v>579.8874807062818</v>
+        <v>611.605507827378</v>
       </c>
       <c r="M25" t="n">
-        <v>747.3199620054796</v>
+        <v>872.0487596313891</v>
       </c>
       <c r="N25" t="n">
-        <v>1011.63956954014</v>
+        <v>1104.650340044952</v>
       </c>
       <c r="O25" t="n">
-        <v>1242.568689263143</v>
+        <v>1242.568689263142</v>
       </c>
       <c r="P25" t="n">
-        <v>1434.530462520715</v>
+        <v>1434.530462520714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1540.462000384069</v>
+        <v>1540.462000384068</v>
       </c>
       <c r="R25" t="n">
         <v>1545.429939745535</v>
@@ -6175,22 +6175,22 @@
         <v>1448.643321468508</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.775971934181</v>
+        <v>1321.77597193418</v>
       </c>
       <c r="U25" t="n">
         <v>1127.572370955971</v>
       </c>
       <c r="V25" t="n">
-        <v>967.7871486462308</v>
+        <v>967.7871486462304</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054167</v>
+        <v>773.2692445054164</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035459</v>
+        <v>640.1789595035457</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561624</v>
+        <v>514.2856462561622</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1312.248927128598</v>
+        <v>1340.251487512674</v>
       </c>
       <c r="C26" t="n">
-        <v>1312.248927128598</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="D26" t="n">
-        <v>1001.432861469921</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="E26" t="n">
-        <v>1001.432861469921</v>
+        <v>680.3999838701649</v>
       </c>
       <c r="F26" t="n">
-        <v>637.8965896283869</v>
+        <v>316.8637120286306</v>
       </c>
       <c r="G26" t="n">
         <v>316.8637120286306</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I26" t="n">
-        <v>72.07396936268105</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J26" t="n">
-        <v>260.9531003217065</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K26" t="n">
-        <v>594.772474011553</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L26" t="n">
-        <v>1045.806687259962</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1579.338591931886</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N26" t="n">
-        <v>2126.117408990669</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2629.089879870005</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P26" t="n">
-        <v>3023.864246227184</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3272.150607982866</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748726</v>
+        <v>3273.646193748724</v>
       </c>
       <c r="T26" t="n">
-        <v>3115.118079081021</v>
+        <v>3115.118079081019</v>
       </c>
       <c r="U26" t="n">
-        <v>2909.037235302931</v>
+        <v>2909.037235302929</v>
       </c>
       <c r="V26" t="n">
-        <v>2625.423980907433</v>
+        <v>2653.426541291509</v>
       </c>
       <c r="W26" t="n">
-        <v>2320.104958585393</v>
+        <v>2348.107518969468</v>
       </c>
       <c r="X26" t="n">
-        <v>1994.088833272386</v>
+        <v>2022.091393656461</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.399134244647</v>
+        <v>1679.401694628723</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
         <v>459.1365886865626</v>
@@ -6300,10 +6300,10 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K27" t="n">
         <v>398.6712130564356</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585823</v>
+        <v>759.6838779585819</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787487</v>
+        <v>638.1973279787483</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144862</v>
+        <v>535.5303215144859</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801664</v>
+        <v>435.066860880166</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303289</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531215</v>
+        <v>215.3733426531212</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190526</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848134</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860971</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869999</v>
+        <v>771.9155141869991</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997227</v>
+        <v>1550.491706997226</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.326691170047</v>
+        <v>1896.326691170046</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.439576856113</v>
+        <v>2175.439576856112</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.555258261034</v>
+        <v>2299.555258261033</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966635</v>
+        <v>2257.174433966634</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741535</v>
+        <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.967966332851</v>
+        <v>1696.96796633285</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036206</v>
+        <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407488</v>
+        <v>893.8827098407482</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1960.47113996989</v>
+        <v>1638.265052441603</v>
       </c>
       <c r="C29" t="n">
-        <v>1638.958255977552</v>
+        <v>1316.752168449264</v>
       </c>
       <c r="D29" t="n">
-        <v>1328.142190318874</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E29" t="n">
-        <v>989.8035706687035</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="F29" t="n">
-        <v>626.2672988271693</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G29" t="n">
-        <v>258.644481620239</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I29" t="n">
-        <v>72.07396936268104</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J29" t="n">
-        <v>260.9531003217065</v>
+        <v>266.2726550555922</v>
       </c>
       <c r="K29" t="n">
-        <v>600.0920287454405</v>
+        <v>600.0920287454387</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.126241993849</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665774</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724556</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603893</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.646193748723</v>
       </c>
       <c r="T29" t="n">
-        <v>3273.646193748725</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U29" t="n">
-        <v>3273.646193748725</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V29" t="n">
-        <v>3273.646193748725</v>
+        <v>2625.423980907431</v>
       </c>
       <c r="W29" t="n">
-        <v>2968.327171426684</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="X29" t="n">
-        <v>2642.311046113677</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2299.621347085938</v>
+        <v>1977.415259557652</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343956</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532686</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920175</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865619</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6020307134476</v>
+        <v>312.602030713447</v>
       </c>
       <c r="G30" t="n">
         <v>176.2389305460656</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393307</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760887</v>
       </c>
       <c r="K30" t="n">
         <v>398.6712130564356</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3693733691009</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.645698591417</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N30" t="n">
         <v>1686.168742145871</v>
@@ -6561,7 +6561,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R30" t="n">
         <v>2565.126817279144</v>
@@ -6570,16 +6570,16 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T30" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U30" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.588618624951</v>
+        <v>1525.58861862495</v>
       </c>
       <c r="X30" t="n">
         <v>1317.737118419418</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585823</v>
+        <v>759.683877958582</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787487</v>
+        <v>638.1973279787484</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144862</v>
+        <v>535.530321514486</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801664</v>
+        <v>435.0668608801662</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303291</v>
       </c>
       <c r="G31" t="n">
         <v>215.3733426531214</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190524</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848133</v>
@@ -6625,7 +6625,7 @@
         <v>408.8503304860963</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869994</v>
+        <v>771.9155141869992</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
@@ -6643,28 +6643,28 @@
         <v>2299.555258261033</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966635</v>
+        <v>2257.174433966634</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.938182741535</v>
+        <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.967966332851</v>
+        <v>1696.96796633285</v>
       </c>
       <c r="V31" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.225656036206</v>
+        <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407488</v>
+        <v>893.8827098407485</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842703</v>
+        <v>1715.929751842702</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939628</v>
+        <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
         <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093059</v>
+        <v>896.642491809306</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570347</v>
+        <v>583.566323057035</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393675</v>
+        <v>266.4036089393673</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I32" t="n">
-        <v>77.3935240965686</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J32" t="n">
-        <v>266.272655055594</v>
+        <v>266.2726550555922</v>
       </c>
       <c r="K32" t="n">
-        <v>600.0920287454405</v>
+        <v>600.0920287454387</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.126241993849</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665774</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724556</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603893</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837988</v>
+        <v>3324.106296837986</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259546</v>
+        <v>3216.038285259545</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570719</v>
+        <v>3060.417544570718</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264485</v>
+        <v>2827.264393264484</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031707</v>
+        <v>2572.405474031706</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807964</v>
+        <v>2296.849451807963</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869489</v>
+        <v>2004.619855869488</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
         <v>459.1365886865626</v>
@@ -6768,13 +6768,13 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760884</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894222</v>
+        <v>407.0472151894209</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988516</v>
+        <v>336.0207682988506</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238523</v>
+        <v>283.8138649238514</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787956</v>
+        <v>233.8105073787949</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182216</v>
+        <v>184.8302959182212</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302769</v>
+        <v>115.0371953302767</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I34" t="n">
-        <v>67.30218066992479</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0862664975576</v>
+        <v>174.5138304131041</v>
       </c>
       <c r="K34" t="n">
-        <v>369.3584530554214</v>
+        <v>272.8246846807745</v>
       </c>
       <c r="L34" t="n">
-        <v>621.029629267972</v>
+        <v>524.4958608933254</v>
       </c>
       <c r="M34" t="n">
-        <v>884.4234428573633</v>
+        <v>783.9554921066029</v>
       </c>
       <c r="N34" t="n">
-        <v>1151.693612177404</v>
+        <v>955.2643291364504</v>
       </c>
       <c r="O34" t="n">
-        <v>1385.573293685787</v>
+        <v>1189.144010644834</v>
       </c>
       <c r="P34" t="n">
-        <v>1484.524296438546</v>
+        <v>1384.056345687786</v>
       </c>
       <c r="Q34" t="n">
-        <v>1500.85694648337</v>
+        <v>1492.93844533652</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.85694648337</v>
+        <v>1500.856946483367</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347533</v>
+        <v>1407.08079834753</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954395</v>
+        <v>1283.223918954393</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117375</v>
+        <v>1092.030788117373</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488243</v>
+        <v>935.2560359488223</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019492001</v>
+        <v>743.7486019491982</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885191</v>
+        <v>613.6687870885174</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823255</v>
+        <v>490.7859439823239</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464991</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307349</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919198</v>
@@ -7087,58 +7087,58 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954469</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>370.0614702889412</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L37" t="n">
-        <v>611.3204820829767</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M37" t="n">
-        <v>875.4608364079985</v>
+        <v>693.2037955104962</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437846</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>417.904736031331</v>
+        <v>514.6126090571533</v>
       </c>
       <c r="M40" t="n">
-        <v>682.0450903563526</v>
+        <v>778.752963382175</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120239</v>
+        <v>1046.769673437846</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
@@ -7421,16 +7421,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>273.3535972631171</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L43" t="n">
-        <v>429.0634411854744</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M43" t="n">
-        <v>693.2037955104961</v>
+        <v>791.2306453564044</v>
       </c>
       <c r="N43" t="n">
-        <v>961.2205055661675</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.34689843462</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,61 +7631,61 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
@@ -7731,19 +7731,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J46" t="n">
-        <v>78.3348699696229</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>417.904736031331</v>
+        <v>430.3824180055587</v>
       </c>
       <c r="M46" t="n">
-        <v>682.0450903563526</v>
+        <v>694.5227723305804</v>
       </c>
       <c r="N46" t="n">
-        <v>950.0618004120239</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
   </sheetData>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446534</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>65.342958377751</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877944</v>
+        <v>15.25382330877945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625764005</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>110.8592935292162</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0357106656243</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>83.92851037866765</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287701</v>
       </c>
       <c r="H17" t="n">
-        <v>52.28225787287805</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52.28225787287882</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.28225787287656</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>41.72511615689112</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>41.7251161568916</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24443,19 +24443,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>46.12404021110223</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.72253478023692</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>128.9884369885843</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>57.63703810430769</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,19 +24731,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779779.6090151509</v>
+        <v>779779.6090151508</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816880.1021376026</v>
+        <v>816880.1021376027</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816880.1021376026</v>
+        <v>816880.1021376027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817720.4506181952</v>
+        <v>817720.4506181951</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780619.9574957435</v>
+        <v>780619.9574957432</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780619.9574957433</v>
+        <v>780619.9574957432</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
         <v>614460.1742158984</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173821</v>
+        <v>573398.2574173819</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.257417382</v>
+        <v>573398.2574173819</v>
       </c>
       <c r="G2" t="n">
+        <v>612660.0766032015</v>
+      </c>
+      <c r="H2" t="n">
         <v>612660.0766032016</v>
       </c>
-      <c r="H2" t="n">
-        <v>612660.0766032015</v>
-      </c>
       <c r="I2" t="n">
-        <v>613290.3379636456</v>
+        <v>613290.3379636457</v>
       </c>
       <c r="J2" t="n">
-        <v>574028.5187778273</v>
+        <v>574028.5187778261</v>
       </c>
       <c r="K2" t="n">
-        <v>574028.5187778261</v>
+        <v>574028.5187778272</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982116</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982113</v>
+        <v>615781.3273982116</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982117</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982118</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655568</v>
+        <v>10420.33926655413</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875719</v>
+        <v>1151572.830875721</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487395</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018803592</v>
+        <v>723.3987018799876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157032</v>
+        <v>77544.51094157057</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540877</v>
+        <v>207113.9109540876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747255</v>
+        <v>463375.0335747262</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369703</v>
+        <v>63095.10913369698</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.109133697</v>
+        <v>63095.10913369698</v>
       </c>
       <c r="G4" t="n">
-        <v>91416.01306755026</v>
+        <v>91416.01306755033</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.01306755026</v>
+        <v>91416.01306755032</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942862</v>
+        <v>91906.68112942853</v>
       </c>
       <c r="J4" t="n">
-        <v>63585.77719557526</v>
+        <v>63585.77719557518</v>
       </c>
       <c r="K4" t="n">
-        <v>63585.7771955752</v>
+        <v>63585.77719557512</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920228</v>
+        <v>93788.48670920231</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.13782657696</v>
+      </c>
+      <c r="O4" t="n">
+        <v>93774.13782657703</v>
+      </c>
+      <c r="P4" t="n">
         <v>93774.13782657702</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657693</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.13782657695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93774.13782657692</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251488</v>
+        <v>33892.84951251483</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
         <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217021</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866889</v>
+        <v>82370.04347866886</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.8907182804</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828041</v>
+        <v>78420.89071828038</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082556</v>
+        <v>82620.59982082555</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113213.6941060475</v>
+        <v>113209.2805281794</v>
       </c>
       <c r="C6" t="n">
-        <v>113213.6941060474</v>
+        <v>113209.2805281794</v>
       </c>
       <c r="D6" t="n">
-        <v>106771.9518621023</v>
+        <v>106767.5480181622</v>
       </c>
       <c r="E6" t="n">
-        <v>-719525.1759138161</v>
+        <v>-719666.4528137541</v>
       </c>
       <c r="F6" t="n">
-        <v>432047.654961903</v>
+        <v>431906.3780619668</v>
       </c>
       <c r="G6" t="n">
-        <v>401459.3081586072</v>
+        <v>401448.9039892902</v>
       </c>
       <c r="H6" t="n">
-        <v>439039.417453481</v>
+        <v>439029.0132841643</v>
       </c>
       <c r="I6" t="n">
-        <v>438290.2146536677</v>
+        <v>438281.9113555531</v>
       </c>
       <c r="J6" t="n">
-        <v>432021.8508639716</v>
+        <v>431882.6748352359</v>
       </c>
       <c r="K6" t="n">
-        <v>432021.8508639705</v>
+        <v>431882.674835237</v>
       </c>
       <c r="L6" t="n">
-        <v>361827.7299266139</v>
+        <v>361827.7299266137</v>
       </c>
       <c r="M6" t="n">
-        <v>232374.6813112973</v>
+        <v>232374.6813112972</v>
       </c>
       <c r="N6" t="n">
-        <v>439488.5922653846</v>
+        <v>439488.5922653848</v>
       </c>
       <c r="O6" t="n">
-        <v>439488.5922653849</v>
+        <v>439488.5922653858</v>
       </c>
       <c r="P6" t="n">
-        <v>439488.5922653864</v>
+        <v>439488.592265385</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095756</v>
+        <v>12.16740883095574</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183893</v>
+        <v>834.1218073183888</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183893</v>
+        <v>834.1218073183888</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859243</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.9306386769629</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511420078</v>
+        <v>0.7540815511417804</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095756</v>
+        <v>12.16740883095574</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.60929176234</v>
+        <v>1077.609291762343</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096433</v>
+        <v>2.720351916095979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861964</v>
+        <v>828.6811034861967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859243</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999278</v>
+        <v>338.9738594999279</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298813</v>
+        <v>208.5901246298816</v>
       </c>
       <c r="J8" t="n">
-        <v>176.894372405012</v>
+        <v>176.8943724050126</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682733</v>
+        <v>213.8677805682743</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505246</v>
+        <v>228.0473863505257</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905335</v>
+        <v>221.7573265905348</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710439</v>
+        <v>220.6851794710452</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355882</v>
+        <v>221.8567179355895</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385751</v>
+        <v>224.1990717385762</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728653</v>
+        <v>217.0235058728661</v>
       </c>
       <c r="R8" t="n">
-        <v>212.5129307991467</v>
+        <v>212.5129307991471</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089169</v>
+        <v>207.9054371089171</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,37 +27950,37 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525456</v>
+        <v>98.62130302525469</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758397</v>
+        <v>124.3650025758401</v>
       </c>
       <c r="K9" t="n">
-        <v>133.615330569365</v>
+        <v>133.6153305693656</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951897</v>
+        <v>132.8718554951906</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091465</v>
+        <v>135.5027961091475</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374187</v>
+        <v>124.5349651374197</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948883</v>
+        <v>136.3694007948892</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173281</v>
+        <v>128.9768164173288</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537933</v>
+        <v>136.6410168537938</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506523</v>
+        <v>144.0545809506525</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849783</v>
+        <v>171.1970486849784</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28029,37 +28029,37 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.790642330327</v>
+        <v>154.7906423303271</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463083</v>
+        <v>125.4441765463085</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875905</v>
+        <v>126.4640862875909</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202304</v>
+        <v>131.6226139202309</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628149</v>
+        <v>135.4863965628154</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250445</v>
+        <v>124.327938025045</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599784</v>
+        <v>135.3552454599788</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296876</v>
+        <v>135.074312129688</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959713</v>
+        <v>149.6677228959715</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332692</v>
+        <v>176.3068339332694</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545305</v>
+        <v>223.6342222545306</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J19" t="n">
-        <v>93.95027323718499</v>
+        <v>61.91186200375313</v>
       </c>
       <c r="K19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M19" t="n">
-        <v>66.92998257089417</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J22" t="n">
-        <v>66.9299825708942</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718499</v>
+        <v>61.91186200375313</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718499</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I23" t="n">
-        <v>52.34842422858087</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.77149445565306</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J25" t="n">
-        <v>61.91186200375468</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N25" t="n">
-        <v>93.95027323718509</v>
+        <v>61.9118620037533</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="R25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.373287609988608</v>
+        <v>10.77149445565298</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,34 +29509,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>46.97513661859254</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.7714944556522</v>
       </c>
       <c r="K29" t="n">
-        <v>5.373287609987472</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="I32" t="n">
-        <v>52.34842422857997</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.7714944556522</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="I34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696301</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="M34" t="n">
-        <v>96.93063867696301</v>
+        <v>92.9567170849291</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696301</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.446346147760881</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696301</v>
+        <v>96.93063867696321</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L37" t="n">
-        <v>86.41330088048304</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>77.66073332242618</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>86.41330088048531</v>
+        <v>85.08100106221684</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350415916</v>
       </c>
       <c r="O43" t="n">
-        <v>86.41330088048505</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>86.41330088048528</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350415931</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560823</v>
+        <v>0.04891420635560092</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393728</v>
+        <v>0.500942615839298</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524588</v>
+        <v>1.885764940524306</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674308</v>
+        <v>4.151532121673688</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476707205</v>
+        <v>6.222070476706276</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619462652</v>
+        <v>7.719028619461499</v>
       </c>
       <c r="M8" t="n">
-        <v>8.5889066367392</v>
+        <v>8.588906636737915</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125547071</v>
+        <v>8.727884125545769</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098491</v>
+        <v>8.24149348609726</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016694413</v>
+        <v>7.033924016693362</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001584191</v>
+        <v>5.282184001583403</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985478</v>
+        <v>3.072607014985019</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328424</v>
+        <v>1.114632477328257</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216751</v>
+        <v>0.2141219383216431</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448658</v>
+        <v>0.003913136508448073</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413512</v>
+        <v>0.02617140767413121</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317787</v>
+        <v>0.2527607004317409</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747454417</v>
+        <v>0.9010769747453071</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826951</v>
+        <v>2.472624090826581</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404994004</v>
+        <v>4.226108404993372</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284684471</v>
+        <v>5.682524284683621</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871866</v>
+        <v>6.631237812870876</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945914642</v>
+        <v>6.806746945913626</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649556175</v>
+        <v>6.226843649555245</v>
       </c>
       <c r="P9" t="n">
-        <v>4.99759099700217</v>
+        <v>4.997590997001424</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228196</v>
+        <v>3.340757232227697</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311653</v>
+        <v>1.62492301331141</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594832</v>
+        <v>0.4861224188594105</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268867</v>
+        <v>0.1054891388268709</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456258</v>
+        <v>0.001721803136456001</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943166</v>
+        <v>0.02194122903942838</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727324016</v>
+        <v>0.1950774727323724</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969312722</v>
+        <v>0.6598325969311736</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087818</v>
+        <v>1.551244893087586</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944877</v>
+        <v>2.549171882944496</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007867</v>
+        <v>3.262062361007379</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384790181</v>
+        <v>3.439387384789668</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188666</v>
+        <v>3.357606440188165</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864395</v>
+        <v>3.101292991863932</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459988</v>
+        <v>2.653691919459591</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474591</v>
+        <v>1.837278733474316</v>
       </c>
       <c r="R10" t="n">
-        <v>0.986557443900263</v>
+        <v>0.9865574439001157</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417315</v>
+        <v>0.3823757824416744</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771393523</v>
+        <v>0.09374888771392123</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241728</v>
+        <v>0.001196794311241549</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34384,7 +34384,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746429</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,16 +35574,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,16 +35814,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8924485275279</v>
+        <v>73.85403729409605</v>
       </c>
       <c r="K19" t="n">
-        <v>193.254166436852</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L19" t="n">
-        <v>251.2329438658287</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M19" t="n">
-        <v>236.0537010549324</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>266.9895025602633</v>
+        <v>266.9895025602635</v>
       </c>
       <c r="O19" t="n">
-        <v>233.2617370939423</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682543</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>107.0015533973273</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.0181205671378</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.87215786123708</v>
+        <v>105.892448527528</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>251.2329438658287</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0739917212232</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N22" t="n">
-        <v>266.9895025602633</v>
+        <v>266.9895025602635</v>
       </c>
       <c r="O22" t="n">
-        <v>233.2617370939423</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P22" t="n">
-        <v>193.9007810682543</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.0015533973272</v>
+        <v>74.96314216389536</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.0181205671378</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.77149445565492</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>190.7870009687126</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750249</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597713</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>73.85403729409757</v>
+        <v>105.892448527528</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368521</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L25" t="n">
         <v>251.2329438658288</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>263.0739917212233</v>
       </c>
       <c r="N25" t="n">
-        <v>266.9895025602634</v>
+        <v>234.9510913268316</v>
       </c>
       <c r="O25" t="n">
-        <v>233.2617370939424</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
         <v>193.9007810682544</v>
@@ -36537,7 +36537,7 @@
         <v>107.0015533973273</v>
       </c>
       <c r="R25" t="n">
-        <v>5.018120567137757</v>
+        <v>5.018120567137785</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666579</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687126</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>64.98648615221339</v>
+        <v>70.38469299787776</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629129</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.398206845666579</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243648</v>
       </c>
       <c r="K29" t="n">
-        <v>342.564574165388</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.77149445565401</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243648</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5782182671249174</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108.8728139673059</v>
+        <v>108.8728139673061</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2345318766301</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056067</v>
+        <v>254.2133093056069</v>
       </c>
       <c r="M34" t="n">
-        <v>266.0543571610012</v>
+        <v>262.0804355689673</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000413</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2421025337203</v>
+        <v>236.2421025337205</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>196.8811465080325</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.49762630790308</v>
+        <v>109.9819188371054</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.998486006915883</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553991</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37461,31 +37461,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>243.6959715091267</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>250.6999626455045</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37695,31 +37695,31 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>243.695971509129</v>
+        <v>242.3636716908605</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>249.3676628272375</v>
       </c>
       <c r="O43" t="n">
-        <v>225.7247647372424</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193733</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>243.695971509129</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848622</v>
+        <v>215.6398973609166</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
